--- a/Simulador R-Crio (Autólogo - v2).xlsx
+++ b/Simulador R-Crio (Autólogo - v2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADT501262\OneDrive - Anheuser-Busch InBev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADT501262\OneDrive - Anheuser-Busch InBev\Desktop\Powerbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A64EF41-EA56-443D-ACE7-0B0C64B2313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79FB5F-FB25-4A26-894B-910B36803F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="207">
   <si>
     <t>Insumo</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>teste2</t>
+  </si>
+  <si>
+    <t>Dias que falta</t>
   </si>
 </sst>
 </file>
@@ -1241,28 +1244,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,10 +1282,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1503,10 +1506,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1518,10 +1521,11 @@
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="6" width="50.33203125" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" style="101" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="104" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="104" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,8 +1548,11 @@
       <c r="H1" s="102" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I1" s="102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1570,8 +1577,12 @@
       <c r="H2" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I2" s="103">
+        <f>G2-F2</f>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1596,8 +1607,12 @@
       <c r="H3" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I3" s="103">
+        <f t="shared" ref="I3:I66" si="0">G3-F3</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
@@ -1622,8 +1637,12 @@
       <c r="H4" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I4" s="103">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1648,8 +1667,12 @@
       <c r="H5" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5" s="103">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1674,8 +1697,12 @@
       <c r="H6" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I6" s="103">
+        <f t="shared" si="0"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1700,8 +1727,12 @@
       <c r="H7" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I7" s="103">
+        <f t="shared" si="0"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -1726,8 +1757,12 @@
       <c r="H8" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I8" s="103">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1752,8 +1787,12 @@
       <c r="H9" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I9" s="103">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1778,8 +1817,12 @@
       <c r="H10" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I10" s="103">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -1804,8 +1847,12 @@
       <c r="H11" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I11" s="103">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
@@ -1830,8 +1877,12 @@
       <c r="H12" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I12" s="103">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
@@ -1856,8 +1907,12 @@
       <c r="H13" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I13" s="103">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -1882,8 +1937,12 @@
       <c r="H14" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I14" s="103">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
@@ -1908,8 +1967,12 @@
       <c r="H15" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I15" s="103">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -1934,8 +1997,12 @@
       <c r="H16" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I16" s="103">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>33</v>
       </c>
@@ -1960,8 +2027,12 @@
       <c r="H17" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I17" s="103">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -1986,8 +2057,12 @@
       <c r="H18" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I18" s="103">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -2012,8 +2087,12 @@
       <c r="H19" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I19" s="103">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -2038,8 +2117,12 @@
       <c r="H20" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I20" s="103">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
@@ -2064,8 +2147,12 @@
       <c r="H21" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I21" s="103">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -2090,8 +2177,12 @@
       <c r="H22" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I22" s="103">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
@@ -2116,8 +2207,12 @@
       <c r="H23" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I23" s="103">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>44</v>
       </c>
@@ -2142,8 +2237,12 @@
       <c r="H24" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I24" s="103">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
@@ -2168,8 +2267,12 @@
       <c r="H25" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I25" s="103">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>46</v>
       </c>
@@ -2192,8 +2295,12 @@
       <c r="H26" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I26" s="103">
+        <f t="shared" si="0"/>
+        <v>-45314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
@@ -2214,8 +2321,12 @@
       <c r="H27" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>48</v>
       </c>
@@ -2236,8 +2347,12 @@
       <c r="H28" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I28" s="103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>49</v>
       </c>
@@ -2260,8 +2375,12 @@
       <c r="H29" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I29" s="103">
+        <f t="shared" si="0"/>
+        <v>-45142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>51</v>
       </c>
@@ -2284,8 +2403,12 @@
       <c r="H30" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I30" s="103">
+        <f t="shared" si="0"/>
+        <v>-45142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>52</v>
       </c>
@@ -2308,8 +2431,12 @@
       <c r="H31" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I31" s="103">
+        <f t="shared" si="0"/>
+        <v>-45142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>53</v>
       </c>
@@ -2332,8 +2459,12 @@
       <c r="H32" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I32" s="103">
+        <f t="shared" si="0"/>
+        <v>-45246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>55</v>
       </c>
@@ -2356,8 +2487,12 @@
       <c r="H33" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I33" s="103">
+        <f t="shared" si="0"/>
+        <v>-45012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>56</v>
       </c>
@@ -2380,8 +2515,12 @@
       <c r="H34" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I34" s="103">
+        <f t="shared" si="0"/>
+        <v>-45002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>58</v>
       </c>
@@ -2404,8 +2543,12 @@
       <c r="H35" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I35" s="103">
+        <f t="shared" si="0"/>
+        <v>-45078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>60</v>
       </c>
@@ -2428,8 +2571,12 @@
       <c r="H36" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I36" s="103">
+        <f t="shared" si="0"/>
+        <v>-45104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>61</v>
       </c>
@@ -2452,8 +2599,12 @@
       <c r="H37" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I37" s="103">
+        <f t="shared" si="0"/>
+        <v>-45224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>63</v>
       </c>
@@ -2476,8 +2627,12 @@
       <c r="H38" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I38" s="103">
+        <f t="shared" si="0"/>
+        <v>-44981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>64</v>
       </c>
@@ -2500,8 +2655,12 @@
       <c r="H39" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I39" s="103">
+        <f t="shared" si="0"/>
+        <v>-45212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>66</v>
       </c>
@@ -2524,8 +2683,12 @@
       <c r="H40" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I40" s="103">
+        <f t="shared" si="0"/>
+        <v>-44942</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>67</v>
       </c>
@@ -2548,8 +2711,12 @@
       <c r="H41" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I41" s="103">
+        <f t="shared" si="0"/>
+        <v>-45175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>68</v>
       </c>
@@ -2572,8 +2739,12 @@
       <c r="H42" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I42" s="103">
+        <f t="shared" si="0"/>
+        <v>-45287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>69</v>
       </c>
@@ -2596,8 +2767,12 @@
       <c r="H43" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I43" s="103">
+        <f t="shared" si="0"/>
+        <v>-45218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>70</v>
       </c>
@@ -2620,8 +2795,12 @@
       <c r="H44" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I44" s="103">
+        <f t="shared" si="0"/>
+        <v>-45287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -2644,8 +2823,12 @@
       <c r="H45" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I45" s="103">
+        <f t="shared" si="0"/>
+        <v>-45267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>72</v>
       </c>
@@ -2668,8 +2851,12 @@
       <c r="H46" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I46" s="103">
+        <f t="shared" si="0"/>
+        <v>-45267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>74</v>
       </c>
@@ -2692,8 +2879,12 @@
       <c r="H47" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I47" s="103">
+        <f t="shared" si="0"/>
+        <v>-45246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>75</v>
       </c>
@@ -2716,8 +2907,12 @@
       <c r="H48" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I48" s="103">
+        <f t="shared" si="0"/>
+        <v>-45212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>76</v>
       </c>
@@ -2740,8 +2935,12 @@
       <c r="H49" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I49" s="103">
+        <f t="shared" si="0"/>
+        <v>-45104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>77</v>
       </c>
@@ -2764,8 +2963,12 @@
       <c r="H50" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I50" s="103">
+        <f t="shared" si="0"/>
+        <v>-45291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>79</v>
       </c>
@@ -2788,8 +2991,9 @@
       <c r="H51" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I51" s="103"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>81</v>
       </c>
@@ -2812,8 +3016,9 @@
       <c r="H52" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I52" s="103"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>83</v>
       </c>
@@ -2836,8 +3041,9 @@
       <c r="H53" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I53" s="103"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>84</v>
       </c>
@@ -2860,8 +3066,12 @@
       <c r="H54" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I54" s="103">
+        <f t="shared" si="0"/>
+        <v>-45274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>85</v>
       </c>
@@ -2884,8 +3094,12 @@
       <c r="H55" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I55" s="103">
+        <f t="shared" si="0"/>
+        <v>-45246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>86</v>
       </c>
@@ -2908,8 +3122,12 @@
       <c r="H56" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I56" s="103">
+        <f t="shared" si="0"/>
+        <v>-44139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>87</v>
       </c>
@@ -2932,8 +3150,12 @@
       <c r="H57" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I57" s="103">
+        <f t="shared" si="0"/>
+        <v>-45212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>88</v>
       </c>
@@ -2956,8 +3178,12 @@
       <c r="H58" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I58" s="103">
+        <f t="shared" si="0"/>
+        <v>-45107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>89</v>
       </c>
@@ -2980,8 +3206,12 @@
       <c r="H59" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I59" s="103">
+        <f t="shared" si="0"/>
+        <v>-45224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>90</v>
       </c>
@@ -3004,8 +3234,12 @@
       <c r="H60" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I60" s="103">
+        <f t="shared" si="0"/>
+        <v>-45138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>92</v>
       </c>
@@ -3028,8 +3262,12 @@
       <c r="H61" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I61" s="103">
+        <f t="shared" si="0"/>
+        <v>-45000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>93</v>
       </c>
@@ -3050,8 +3288,12 @@
       <c r="H62" s="103">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I62" s="103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>96</v>
       </c>
@@ -3070,8 +3312,12 @@
       <c r="H63" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I63" s="103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>97</v>
       </c>
@@ -3090,8 +3336,12 @@
       <c r="H64" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I64" s="103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>98</v>
       </c>
@@ -3110,8 +3360,12 @@
       <c r="H65" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I65" s="103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>99</v>
       </c>
@@ -3130,8 +3384,12 @@
       <c r="H66" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I66" s="103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>100</v>
       </c>
@@ -3154,8 +3412,12 @@
       <c r="H67" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I67" s="103">
+        <f t="shared" ref="I67:I70" si="1">G67-F67</f>
+        <v>-45314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -3178,8 +3440,12 @@
       <c r="H68" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="103">
+        <f t="shared" si="1"/>
+        <v>-45314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>204</v>
       </c>
@@ -3204,8 +3470,12 @@
       <c r="H69" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="103">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>205</v>
       </c>
@@ -3230,35 +3500,39 @@
       <c r="H70" s="103">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="103">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="27"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="27"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="27"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="27"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="27"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="27"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="27"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="27"/>
     </row>
     <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6119,15 +6393,15 @@
     </row>
     <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="112" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="108"/>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="112" t="s">
         <v>108</v>
       </c>
       <c r="G3" s="108"/>
@@ -6136,15 +6410,15 @@
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111" t="s">
+      <c r="L3" s="111"/>
+      <c r="M3" s="112" t="s">
         <v>107</v>
       </c>
       <c r="N3" s="108"/>
-      <c r="O3" s="111" t="s">
+      <c r="O3" s="112" t="s">
         <v>108</v>
       </c>
       <c r="P3" s="108"/>
@@ -6160,7 +6434,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="108"/>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="115" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="108"/>
@@ -6183,7 +6457,7 @@
         <v>110</v>
       </c>
       <c r="L4" s="108"/>
-      <c r="M4" s="112" t="s">
+      <c r="M4" s="115" t="s">
         <v>111</v>
       </c>
       <c r="N4" s="108"/>
@@ -6234,10 +6508,10 @@
         <v>110</v>
       </c>
       <c r="L5" s="108"/>
-      <c r="M5" s="109">
+      <c r="M5" s="116">
         <v>0.01</v>
       </c>
-      <c r="N5" s="110"/>
+      <c r="N5" s="111"/>
       <c r="O5" s="42">
         <f>K2*M5</f>
         <v>0.01</v>
@@ -6514,15 +6788,15 @@
     </row>
     <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="112" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="108"/>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="112" t="s">
         <v>108</v>
       </c>
       <c r="G14" s="108"/>
@@ -6531,15 +6805,15 @@
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="111" t="s">
+      <c r="K14" s="112" t="s">
         <v>106</v>
       </c>
       <c r="L14" s="108"/>
-      <c r="M14" s="111" t="s">
+      <c r="M14" s="112" t="s">
         <v>107</v>
       </c>
       <c r="N14" s="108"/>
-      <c r="O14" s="111" t="s">
+      <c r="O14" s="112" t="s">
         <v>108</v>
       </c>
       <c r="P14" s="108"/>
@@ -6552,7 +6826,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="117"/>
-      <c r="C15" s="110"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="38">
         <v>10</v>
       </c>
@@ -6599,7 +6873,7 @@
       <c r="A16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="115" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="108"/>
@@ -6649,11 +6923,11 @@
       <c r="A17" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="115" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="108"/>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="115" t="s">
         <v>111</v>
       </c>
       <c r="E17" s="108"/>
@@ -6670,11 +6944,11 @@
       <c r="J17" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="112" t="s">
+      <c r="K17" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L17" s="108"/>
-      <c r="M17" s="112" t="s">
+      <c r="M17" s="115" t="s">
         <v>111</v>
       </c>
       <c r="N17" s="108"/>
@@ -6705,8 +6979,8 @@
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="60"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -6793,15 +7067,15 @@
     </row>
     <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="112" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="108"/>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="112" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="108"/>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="112" t="s">
         <v>108</v>
       </c>
       <c r="G22" s="108"/>
@@ -6810,15 +7084,15 @@
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="115" t="s">
+      <c r="K22" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="110"/>
-      <c r="M22" s="111" t="s">
+      <c r="L22" s="111"/>
+      <c r="M22" s="112" t="s">
         <v>107</v>
       </c>
       <c r="N22" s="108"/>
-      <c r="O22" s="111" t="s">
+      <c r="O22" s="112" t="s">
         <v>108</v>
       </c>
       <c r="P22" s="108"/>
@@ -6879,11 +7153,11 @@
       <c r="A24" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="115" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="108"/>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="115" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="108"/>
@@ -6901,7 +7175,7 @@
       <c r="J24" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="112" t="s">
+      <c r="K24" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L24" s="108"/>
@@ -6940,11 +7214,11 @@
       <c r="J25" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="112" t="s">
+      <c r="K25" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L25" s="108"/>
-      <c r="M25" s="112" t="s">
+      <c r="M25" s="115" t="s">
         <v>111</v>
       </c>
       <c r="N25" s="108"/>
@@ -7058,15 +7332,15 @@
     </row>
     <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="111" t="s">
+      <c r="C30" s="111"/>
+      <c r="D30" s="112" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="108"/>
-      <c r="F30" s="111" t="s">
+      <c r="F30" s="112" t="s">
         <v>108</v>
       </c>
       <c r="G30" s="108"/>
@@ -7075,15 +7349,15 @@
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111" t="s">
+      <c r="L30" s="111"/>
+      <c r="M30" s="112" t="s">
         <v>107</v>
       </c>
       <c r="N30" s="108"/>
-      <c r="O30" s="111" t="s">
+      <c r="O30" s="112" t="s">
         <v>108</v>
       </c>
       <c r="P30" s="108"/>
@@ -7095,7 +7369,7 @@
       <c r="A31" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="115" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="108"/>
@@ -7147,7 +7421,7 @@
       <c r="A32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="115" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="108"/>
@@ -7171,11 +7445,11 @@
       <c r="J32" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="K32" s="112" t="s">
+      <c r="K32" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L32" s="108"/>
-      <c r="M32" s="112" t="s">
+      <c r="M32" s="115" t="s">
         <v>111</v>
       </c>
       <c r="N32" s="108"/>
@@ -7195,7 +7469,7 @@
       <c r="A33" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="115" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="108"/>
@@ -7219,7 +7493,7 @@
       <c r="J33" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="K33" s="112" t="s">
+      <c r="K33" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L33" s="108"/>
@@ -7257,8 +7531,8 @@
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="60"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
       <c r="M34" s="60"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -7378,15 +7652,15 @@
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="115" t="s">
+      <c r="K39" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L39" s="110"/>
-      <c r="M39" s="111" t="s">
+      <c r="L39" s="111"/>
+      <c r="M39" s="112" t="s">
         <v>107</v>
       </c>
       <c r="N39" s="108"/>
-      <c r="O39" s="111" t="s">
+      <c r="O39" s="112" t="s">
         <v>108</v>
       </c>
       <c r="P39" s="108"/>
@@ -7407,14 +7681,14 @@
       <c r="J40" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K40" s="112" t="s">
+      <c r="K40" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L40" s="108"/>
-      <c r="M40" s="109">
+      <c r="M40" s="116">
         <v>0.9</v>
       </c>
-      <c r="N40" s="110"/>
+      <c r="N40" s="111"/>
       <c r="O40" s="38">
         <f>M40*K38</f>
         <v>4.5</v>
@@ -7442,14 +7716,14 @@
       <c r="J41" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K41" s="112" t="s">
+      <c r="K41" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L41" s="108"/>
-      <c r="M41" s="109">
+      <c r="M41" s="116">
         <v>0.1</v>
       </c>
-      <c r="N41" s="110"/>
+      <c r="N41" s="111"/>
       <c r="O41" s="38">
         <f>K38*M41</f>
         <v>0.5</v>
@@ -7481,7 +7755,7 @@
       <c r="J42" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="K42" s="112" t="s">
+      <c r="K42" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L42" s="108"/>
@@ -7504,15 +7778,15 @@
     </row>
     <row r="43" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111" t="s">
+      <c r="C43" s="111"/>
+      <c r="D43" s="112" t="s">
         <v>107</v>
       </c>
       <c r="E43" s="108"/>
-      <c r="F43" s="111" t="s">
+      <c r="F43" s="112" t="s">
         <v>108</v>
       </c>
       <c r="G43" s="108"/>
@@ -7523,7 +7797,7 @@
       <c r="J43" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="K43" s="112" t="s">
+      <c r="K43" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L43" s="108"/>
@@ -7574,7 +7848,7 @@
       <c r="J44" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="112" t="s">
+      <c r="K44" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L44" s="108"/>
@@ -7684,15 +7958,15 @@
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="66"/>
-      <c r="B49" s="115" t="s">
+      <c r="B49" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="111" t="s">
+      <c r="C49" s="111"/>
+      <c r="D49" s="112" t="s">
         <v>107</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="111" t="s">
+      <c r="F49" s="112" t="s">
         <v>108</v>
       </c>
       <c r="G49" s="108"/>
@@ -7713,7 +7987,7 @@
       <c r="A50" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="118" t="s">
+      <c r="B50" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="108"/>
@@ -7723,7 +7997,7 @@
       <c r="E50" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="118" t="s">
+      <c r="F50" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G50" s="108"/>
@@ -7731,15 +8005,15 @@
         <f>('Lista de insumos'!D55/'Lista de insumos'!B55)*D50</f>
         <v>15.838789999999999</v>
       </c>
-      <c r="K50" s="115" t="s">
+      <c r="K50" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L50" s="110"/>
-      <c r="M50" s="111" t="s">
+      <c r="L50" s="111"/>
+      <c r="M50" s="112" t="s">
         <v>107</v>
       </c>
       <c r="N50" s="108"/>
-      <c r="O50" s="111" t="s">
+      <c r="O50" s="112" t="s">
         <v>108</v>
       </c>
       <c r="P50" s="108"/>
@@ -7751,7 +8025,7 @@
       <c r="A51" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="108"/>
@@ -7761,7 +8035,7 @@
       <c r="E51" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F51" s="118" t="s">
+      <c r="F51" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G51" s="108"/>
@@ -7772,11 +8046,11 @@
       <c r="J51" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="K51" s="112" t="s">
+      <c r="K51" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L51" s="108"/>
-      <c r="M51" s="112" t="s">
+      <c r="M51" s="115" t="s">
         <v>110</v>
       </c>
       <c r="N51" s="108"/>
@@ -7794,7 +8068,7 @@
       <c r="A52" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="118" t="s">
+      <c r="B52" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="108"/>
@@ -7804,7 +8078,7 @@
       <c r="E52" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F52" s="118" t="s">
+      <c r="F52" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G52" s="108"/>
@@ -7815,11 +8089,11 @@
       <c r="J52" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="K52" s="112" t="s">
+      <c r="K52" s="115" t="s">
         <v>110</v>
       </c>
       <c r="L52" s="108"/>
-      <c r="M52" s="112" t="s">
+      <c r="M52" s="115" t="s">
         <v>110</v>
       </c>
       <c r="N52" s="108"/>
@@ -7838,7 +8112,7 @@
       <c r="A53" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C53" s="108"/>
@@ -7848,7 +8122,7 @@
       <c r="E53" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="118" t="s">
+      <c r="F53" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G53" s="108"/>
@@ -7868,7 +8142,7 @@
       <c r="A54" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="118" t="s">
+      <c r="B54" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C54" s="108"/>
@@ -7878,7 +8152,7 @@
       <c r="E54" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F54" s="118" t="s">
+      <c r="F54" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G54" s="108"/>
@@ -7891,7 +8165,7 @@
       <c r="A55" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C55" s="108"/>
@@ -7901,7 +8175,7 @@
       <c r="E55" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F55" s="118" t="s">
+      <c r="F55" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G55" s="108"/>
@@ -7914,7 +8188,7 @@
       <c r="A56" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="118" t="s">
+      <c r="B56" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="108"/>
@@ -7924,7 +8198,7 @@
       <c r="E56" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F56" s="118" t="s">
+      <c r="F56" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G56" s="108"/>
@@ -7947,7 +8221,7 @@
       <c r="A57" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="108"/>
@@ -7957,7 +8231,7 @@
       <c r="E57" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="118" t="s">
+      <c r="F57" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G57" s="108"/>
@@ -7979,7 +8253,7 @@
       <c r="A58" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C58" s="108"/>
@@ -7989,7 +8263,7 @@
       <c r="E58" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F58" s="118" t="s">
+      <c r="F58" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G58" s="108"/>
@@ -7997,15 +8271,15 @@
         <f>('Lista de insumos'!D28/'Lista de insumos'!B28)*D58</f>
         <v>12.605899999999998</v>
       </c>
-      <c r="K58" s="115" t="s">
+      <c r="K58" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L58" s="110"/>
-      <c r="M58" s="111" t="s">
+      <c r="L58" s="111"/>
+      <c r="M58" s="112" t="s">
         <v>107</v>
       </c>
       <c r="N58" s="108"/>
-      <c r="O58" s="111" t="s">
+      <c r="O58" s="112" t="s">
         <v>108</v>
       </c>
       <c r="P58" s="108"/>
@@ -8017,7 +8291,7 @@
       <c r="A59" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C59" s="108"/>
@@ -8027,7 +8301,7 @@
       <c r="E59" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="118" t="s">
+      <c r="F59" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G59" s="108"/>
@@ -8060,7 +8334,7 @@
       <c r="A60" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="118" t="s">
+      <c r="B60" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C60" s="108"/>
@@ -8070,7 +8344,7 @@
       <c r="E60" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="118" t="s">
+      <c r="F60" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G60" s="108"/>
@@ -8104,7 +8378,7 @@
       <c r="A61" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C61" s="108"/>
@@ -8114,7 +8388,7 @@
       <c r="E61" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="118" t="s">
+      <c r="F61" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G61" s="108"/>
@@ -8153,15 +8427,15 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66"/>
-      <c r="B65" s="115" t="s">
+      <c r="B65" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="110"/>
-      <c r="D65" s="111" t="s">
+      <c r="C65" s="111"/>
+      <c r="D65" s="112" t="s">
         <v>107</v>
       </c>
       <c r="E65" s="108"/>
-      <c r="F65" s="111" t="s">
+      <c r="F65" s="112" t="s">
         <v>108</v>
       </c>
       <c r="G65" s="108"/>
@@ -8173,7 +8447,7 @@
       <c r="A66" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="118" t="s">
+      <c r="B66" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C66" s="108"/>
@@ -8183,7 +8457,7 @@
       <c r="E66" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="118" t="s">
+      <c r="F66" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G66" s="108"/>
@@ -8196,7 +8470,7 @@
       <c r="A67" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="118" t="s">
+      <c r="B67" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C67" s="108"/>
@@ -8206,7 +8480,7 @@
       <c r="E67" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="F67" s="118" t="s">
+      <c r="F67" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G67" s="108"/>
@@ -8219,7 +8493,7 @@
       <c r="A68" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="118" t="s">
+      <c r="B68" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C68" s="108"/>
@@ -8229,7 +8503,7 @@
       <c r="E68" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="118" t="s">
+      <c r="F68" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G68" s="108"/>
@@ -8242,7 +8516,7 @@
       <c r="A69" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C69" s="108"/>
@@ -8252,7 +8526,7 @@
       <c r="E69" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="118" t="s">
+      <c r="F69" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G69" s="108"/>
@@ -8265,7 +8539,7 @@
       <c r="A70" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="118" t="s">
+      <c r="B70" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C70" s="108"/>
@@ -8275,7 +8549,7 @@
       <c r="E70" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="118" t="s">
+      <c r="F70" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G70" s="108"/>
@@ -8288,7 +8562,7 @@
       <c r="A71" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="118" t="s">
+      <c r="B71" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C71" s="108"/>
@@ -8298,7 +8572,7 @@
       <c r="E71" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="118" t="s">
+      <c r="F71" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G71" s="108"/>
@@ -8311,7 +8585,7 @@
       <c r="A72" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="118" t="s">
+      <c r="B72" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C72" s="108"/>
@@ -8321,7 +8595,7 @@
       <c r="E72" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="118" t="s">
+      <c r="F72" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G72" s="108"/>
@@ -8334,7 +8608,7 @@
       <c r="A73" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="118" t="s">
+      <c r="B73" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C73" s="108"/>
@@ -8344,7 +8618,7 @@
       <c r="E73" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="118" t="s">
+      <c r="F73" s="109" t="s">
         <v>110</v>
       </c>
       <c r="G73" s="108"/>
@@ -8364,125 +8638,6 @@
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="K14:L14"/>
@@ -8507,6 +8662,125 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8734,7 +9008,7 @@
       <c r="B8" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="72" t="s">
         <v>2</v>
       </c>
@@ -12816,7 +13090,7 @@
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="126"/>
       <c r="L2" s="114"/>
       <c r="M2" s="114"/>
       <c r="N2" s="108"/>
@@ -12986,7 +13260,7 @@
       <c r="B8" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="72" t="s">
         <v>2</v>
       </c>
@@ -13593,7 +13867,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="125" t="s">
         <v>191</v>
       </c>
       <c r="B25" s="114"/>
@@ -13831,7 +14105,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="125" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="114"/>
@@ -14172,11 +14446,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A25:D25"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="F32:I32"/>
@@ -14188,6 +14457,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
